--- a/@Documents/Gantt-Chart.xlsx
+++ b/@Documents/Gantt-Chart.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\UPH2023\@Github\Asisten-Mata-kuliah\@Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7F814A6-80CD-481A-8E84-2956151CAB9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CCFC321-8C10-42BE-A290-A4647C6AF959}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="69">
   <si>
     <t>Create a Project Schedule in this worksheet.
 Enter title of this project in cell B1. 
@@ -262,9 +262,6 @@
     <t>Cristo</t>
   </si>
   <si>
-    <t>Everyone</t>
-  </si>
-  <si>
     <t>Creating a sketch for UI/UX</t>
   </si>
   <si>
@@ -284,6 +281,15 @@
   </si>
   <si>
     <t>Suggested UI/UX designs</t>
+  </si>
+  <si>
+    <t>(wireframe)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Creating an activity diagram </t>
+  </si>
+  <si>
+    <t>Managing Documents</t>
   </si>
 </sst>
 </file>
@@ -296,12 +302,19 @@
     <numFmt numFmtId="166" formatCode="ddd\,\ m/d/yyyy"/>
     <numFmt numFmtId="167" formatCode="d"/>
   </numFmts>
-  <fonts count="29">
+  <fonts count="30">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -704,262 +717,262 @@
   </borders>
   <cellStyleXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="3" applyFill="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="3" applyFill="0">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="3" applyFill="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="27" fillId="0" borderId="3" applyFill="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="27" fillId="0" borderId="5">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="3" applyFill="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="28" fillId="0" borderId="3" applyFill="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="28" fillId="0" borderId="5">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyProtection="0">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="9" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="28" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="103">
+  <cellXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="11" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="11" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="5"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="5"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="5" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="5" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="8" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="8" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="9">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="9">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="6">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="6">
       <alignment horizontal="right" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="3" xfId="2" applyFill="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="3" xfId="2" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="5" borderId="3" xfId="2" applyFill="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="6" borderId="3" xfId="1" applyFill="1">
+    <xf numFmtId="0" fontId="28" fillId="5" borderId="3" xfId="2" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="6" borderId="3" xfId="1" applyFill="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="6" borderId="3" xfId="2" applyFill="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="6" borderId="3" xfId="2" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="7" borderId="3" xfId="2" applyFill="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="8" borderId="3" xfId="1" applyFill="1">
+    <xf numFmtId="0" fontId="28" fillId="7" borderId="3" xfId="2" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="8" borderId="3" xfId="1" applyFill="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="8" borderId="3" xfId="2" applyFill="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="8" borderId="3" xfId="2" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="9" borderId="3" xfId="2" applyFill="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="10" borderId="3" xfId="1" applyFill="1">
+    <xf numFmtId="0" fontId="28" fillId="9" borderId="3" xfId="2" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="10" borderId="3" xfId="1" applyFill="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="10" borderId="3" xfId="2" applyFill="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="3" xfId="1">
+    <xf numFmtId="0" fontId="28" fillId="10" borderId="3" xfId="2" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="3" xfId="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="3" xfId="2">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="3" xfId="2">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="11" applyFont="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="11" applyFont="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="8" fillId="3" borderId="3" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="9" fillId="3" borderId="3" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="4" borderId="3" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="27" fillId="4" borderId="3" xfId="3" applyFill="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="5" borderId="3" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="4" borderId="3" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="28" fillId="4" borderId="3" xfId="3" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="5" borderId="3" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="6" borderId="3" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="27" fillId="6" borderId="3" xfId="3" applyFill="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="7" borderId="3" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="6" borderId="3" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="28" fillId="6" borderId="3" xfId="3" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="7" borderId="3" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="8" borderId="3" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="27" fillId="8" borderId="3" xfId="3" applyFill="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="9" borderId="3" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="8" borderId="3" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="28" fillId="8" borderId="3" xfId="3" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="9" borderId="3" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="10" borderId="3" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="27" fillId="10" borderId="3" xfId="3" applyFill="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="3" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="27" fillId="0" borderId="3" xfId="3">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="11" borderId="3" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="22" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="10" borderId="3" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="28" fillId="10" borderId="3" xfId="3" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="3" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="28" fillId="0" borderId="3" xfId="3">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="11" borderId="3" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="23" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="11" applyFont="1" applyProtection="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="11" applyFont="1" applyProtection="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="167" fontId="25" fillId="12" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="25" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="26" fillId="12" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="26" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
@@ -968,48 +981,42 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="25" fillId="12" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="26" fillId="12" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="2" applyFont="1" applyFill="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="2" applyFont="1" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="2" applyFont="1" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="7" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="2" applyFont="1" applyFill="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="2" applyFont="1" applyFill="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="7" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="6">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="4" xfId="6" applyBorder="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="27" fillId="0" borderId="5" xfId="4">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="12" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -1019,11 +1026,23 @@
     <xf numFmtId="164" fontId="0" fillId="12" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="6">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="4" xfId="6" applyBorder="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="28" fillId="0" borderId="5" xfId="4">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="2" applyFont="1" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="6" borderId="3" xfId="3" applyFont="1" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="12">
@@ -1586,8 +1605,8 @@
   <dimension ref="A1:BM38"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AC16" sqref="AC16"/>
+      <pane ySplit="6" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AC20" sqref="AC20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="30" customHeight="1"/>
@@ -1623,7 +1642,7 @@
       <c r="A2" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="93" t="s">
+      <c r="B2" s="92" t="s">
         <v>52</v>
       </c>
       <c r="J2" s="78"/>
@@ -1636,108 +1655,108 @@
         <v>53</v>
       </c>
       <c r="C3" s="20"/>
-      <c r="D3" s="95" t="s">
+      <c r="D3" s="99" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="96"/>
-      <c r="F3" s="97">
+      <c r="E3" s="100"/>
+      <c r="F3" s="101">
         <f ca="1">TODAY()</f>
-        <v>44989</v>
-      </c>
-      <c r="G3" s="97"/>
+        <v>44998</v>
+      </c>
+      <c r="G3" s="101"/>
     </row>
     <row r="4" spans="1:65" ht="30" customHeight="1">
       <c r="A4" s="16" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="20"/>
-      <c r="D4" s="95" t="s">
+      <c r="D4" s="99" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="96"/>
+      <c r="E4" s="100"/>
       <c r="F4" s="47">
-        <v>0</v>
-      </c>
-      <c r="J4" s="98">
+        <v>1</v>
+      </c>
+      <c r="J4" s="96">
         <f ca="1">J5</f>
-        <v>44977</v>
-      </c>
-      <c r="K4" s="99"/>
-      <c r="L4" s="99"/>
-      <c r="M4" s="99"/>
-      <c r="N4" s="99"/>
-      <c r="O4" s="99"/>
-      <c r="P4" s="100"/>
-      <c r="Q4" s="98">
+        <v>44998</v>
+      </c>
+      <c r="K4" s="97"/>
+      <c r="L4" s="97"/>
+      <c r="M4" s="97"/>
+      <c r="N4" s="97"/>
+      <c r="O4" s="97"/>
+      <c r="P4" s="98"/>
+      <c r="Q4" s="96">
         <f ca="1">Q5</f>
-        <v>44984</v>
-      </c>
-      <c r="R4" s="99"/>
-      <c r="S4" s="99"/>
-      <c r="T4" s="99"/>
-      <c r="U4" s="99"/>
-      <c r="V4" s="99"/>
-      <c r="W4" s="100"/>
-      <c r="X4" s="98">
+        <v>45005</v>
+      </c>
+      <c r="R4" s="97"/>
+      <c r="S4" s="97"/>
+      <c r="T4" s="97"/>
+      <c r="U4" s="97"/>
+      <c r="V4" s="97"/>
+      <c r="W4" s="98"/>
+      <c r="X4" s="96">
         <f ca="1">X5</f>
-        <v>44991</v>
-      </c>
-      <c r="Y4" s="99"/>
-      <c r="Z4" s="99"/>
-      <c r="AA4" s="99"/>
-      <c r="AB4" s="99"/>
-      <c r="AC4" s="99"/>
-      <c r="AD4" s="100"/>
-      <c r="AE4" s="98">
+        <v>45012</v>
+      </c>
+      <c r="Y4" s="97"/>
+      <c r="Z4" s="97"/>
+      <c r="AA4" s="97"/>
+      <c r="AB4" s="97"/>
+      <c r="AC4" s="97"/>
+      <c r="AD4" s="98"/>
+      <c r="AE4" s="96">
         <f ca="1">AE5</f>
-        <v>44998</v>
-      </c>
-      <c r="AF4" s="99"/>
-      <c r="AG4" s="99"/>
-      <c r="AH4" s="99"/>
-      <c r="AI4" s="99"/>
-      <c r="AJ4" s="99"/>
-      <c r="AK4" s="100"/>
-      <c r="AL4" s="98">
+        <v>45019</v>
+      </c>
+      <c r="AF4" s="97"/>
+      <c r="AG4" s="97"/>
+      <c r="AH4" s="97"/>
+      <c r="AI4" s="97"/>
+      <c r="AJ4" s="97"/>
+      <c r="AK4" s="98"/>
+      <c r="AL4" s="96">
         <f ca="1">AL5</f>
-        <v>45005</v>
-      </c>
-      <c r="AM4" s="99"/>
-      <c r="AN4" s="99"/>
-      <c r="AO4" s="99"/>
-      <c r="AP4" s="99"/>
-      <c r="AQ4" s="99"/>
-      <c r="AR4" s="100"/>
-      <c r="AS4" s="98">
+        <v>45026</v>
+      </c>
+      <c r="AM4" s="97"/>
+      <c r="AN4" s="97"/>
+      <c r="AO4" s="97"/>
+      <c r="AP4" s="97"/>
+      <c r="AQ4" s="97"/>
+      <c r="AR4" s="98"/>
+      <c r="AS4" s="96">
         <f ca="1">AS5</f>
-        <v>45012</v>
-      </c>
-      <c r="AT4" s="99"/>
-      <c r="AU4" s="99"/>
-      <c r="AV4" s="99"/>
-      <c r="AW4" s="99"/>
-      <c r="AX4" s="99"/>
-      <c r="AY4" s="100"/>
-      <c r="AZ4" s="98">
+        <v>45033</v>
+      </c>
+      <c r="AT4" s="97"/>
+      <c r="AU4" s="97"/>
+      <c r="AV4" s="97"/>
+      <c r="AW4" s="97"/>
+      <c r="AX4" s="97"/>
+      <c r="AY4" s="98"/>
+      <c r="AZ4" s="96">
         <f ca="1">AZ5</f>
-        <v>45019</v>
-      </c>
-      <c r="BA4" s="99"/>
-      <c r="BB4" s="99"/>
-      <c r="BC4" s="99"/>
-      <c r="BD4" s="99"/>
-      <c r="BE4" s="99"/>
-      <c r="BF4" s="100"/>
-      <c r="BG4" s="98">
+        <v>45040</v>
+      </c>
+      <c r="BA4" s="97"/>
+      <c r="BB4" s="97"/>
+      <c r="BC4" s="97"/>
+      <c r="BD4" s="97"/>
+      <c r="BE4" s="97"/>
+      <c r="BF4" s="98"/>
+      <c r="BG4" s="96">
         <f ca="1">BG5</f>
-        <v>45026</v>
-      </c>
-      <c r="BH4" s="99"/>
-      <c r="BI4" s="99"/>
-      <c r="BJ4" s="99"/>
-      <c r="BK4" s="99"/>
-      <c r="BL4" s="99"/>
-      <c r="BM4" s="100"/>
+        <v>45047</v>
+      </c>
+      <c r="BH4" s="97"/>
+      <c r="BI4" s="97"/>
+      <c r="BJ4" s="97"/>
+      <c r="BK4" s="97"/>
+      <c r="BL4" s="97"/>
+      <c r="BM4" s="98"/>
     </row>
     <row r="5" spans="1:65" ht="15" customHeight="1">
       <c r="A5" s="16" t="s">
@@ -1752,227 +1771,227 @@
       <c r="H5" s="21"/>
       <c r="J5" s="79">
         <f ca="1">Project_Start-WEEKDAY(Project_Start,1)+2+7*(Display_Week-1)</f>
-        <v>44977</v>
+        <v>44998</v>
       </c>
       <c r="K5" s="80">
         <f ca="1">J5+1</f>
-        <v>44978</v>
+        <v>44999</v>
       </c>
       <c r="L5" s="80">
         <f t="shared" ref="L5:BA5" ca="1" si="0">K5+1</f>
-        <v>44979</v>
+        <v>45000</v>
       </c>
       <c r="M5" s="80">
         <f t="shared" ca="1" si="0"/>
-        <v>44980</v>
+        <v>45001</v>
       </c>
       <c r="N5" s="80">
         <f t="shared" ca="1" si="0"/>
-        <v>44981</v>
+        <v>45002</v>
       </c>
       <c r="O5" s="80">
         <f t="shared" ca="1" si="0"/>
-        <v>44982</v>
+        <v>45003</v>
       </c>
       <c r="P5" s="84">
         <f t="shared" ca="1" si="0"/>
-        <v>44983</v>
+        <v>45004</v>
       </c>
       <c r="Q5" s="79">
         <f t="shared" ca="1" si="0"/>
-        <v>44984</v>
+        <v>45005</v>
       </c>
       <c r="R5" s="80">
         <f t="shared" ca="1" si="0"/>
-        <v>44985</v>
+        <v>45006</v>
       </c>
       <c r="S5" s="80">
         <f t="shared" ca="1" si="0"/>
-        <v>44986</v>
+        <v>45007</v>
       </c>
       <c r="T5" s="80">
         <f t="shared" ca="1" si="0"/>
-        <v>44987</v>
+        <v>45008</v>
       </c>
       <c r="U5" s="80">
         <f t="shared" ca="1" si="0"/>
-        <v>44988</v>
+        <v>45009</v>
       </c>
       <c r="V5" s="80">
         <f t="shared" ca="1" si="0"/>
-        <v>44989</v>
+        <v>45010</v>
       </c>
       <c r="W5" s="84">
         <f t="shared" ca="1" si="0"/>
-        <v>44990</v>
+        <v>45011</v>
       </c>
       <c r="X5" s="79">
         <f t="shared" ca="1" si="0"/>
-        <v>44991</v>
+        <v>45012</v>
       </c>
       <c r="Y5" s="80">
         <f t="shared" ca="1" si="0"/>
-        <v>44992</v>
+        <v>45013</v>
       </c>
       <c r="Z5" s="80">
         <f t="shared" ca="1" si="0"/>
-        <v>44993</v>
+        <v>45014</v>
       </c>
       <c r="AA5" s="80">
         <f t="shared" ca="1" si="0"/>
-        <v>44994</v>
+        <v>45015</v>
       </c>
       <c r="AB5" s="80">
         <f t="shared" ca="1" si="0"/>
-        <v>44995</v>
+        <v>45016</v>
       </c>
       <c r="AC5" s="80">
         <f t="shared" ca="1" si="0"/>
-        <v>44996</v>
+        <v>45017</v>
       </c>
       <c r="AD5" s="84">
         <f t="shared" ca="1" si="0"/>
-        <v>44997</v>
+        <v>45018</v>
       </c>
       <c r="AE5" s="79">
         <f t="shared" ca="1" si="0"/>
-        <v>44998</v>
+        <v>45019</v>
       </c>
       <c r="AF5" s="80">
         <f t="shared" ca="1" si="0"/>
-        <v>44999</v>
+        <v>45020</v>
       </c>
       <c r="AG5" s="80">
         <f t="shared" ca="1" si="0"/>
-        <v>45000</v>
+        <v>45021</v>
       </c>
       <c r="AH5" s="80">
         <f t="shared" ca="1" si="0"/>
-        <v>45001</v>
+        <v>45022</v>
       </c>
       <c r="AI5" s="80">
         <f t="shared" ca="1" si="0"/>
-        <v>45002</v>
+        <v>45023</v>
       </c>
       <c r="AJ5" s="80">
         <f t="shared" ca="1" si="0"/>
-        <v>45003</v>
+        <v>45024</v>
       </c>
       <c r="AK5" s="84">
         <f t="shared" ca="1" si="0"/>
-        <v>45004</v>
+        <v>45025</v>
       </c>
       <c r="AL5" s="79">
         <f t="shared" ca="1" si="0"/>
-        <v>45005</v>
+        <v>45026</v>
       </c>
       <c r="AM5" s="80">
         <f t="shared" ca="1" si="0"/>
-        <v>45006</v>
+        <v>45027</v>
       </c>
       <c r="AN5" s="80">
         <f t="shared" ca="1" si="0"/>
-        <v>45007</v>
+        <v>45028</v>
       </c>
       <c r="AO5" s="80">
         <f t="shared" ca="1" si="0"/>
-        <v>45008</v>
+        <v>45029</v>
       </c>
       <c r="AP5" s="80">
         <f t="shared" ca="1" si="0"/>
-        <v>45009</v>
+        <v>45030</v>
       </c>
       <c r="AQ5" s="80">
         <f t="shared" ca="1" si="0"/>
-        <v>45010</v>
+        <v>45031</v>
       </c>
       <c r="AR5" s="84">
         <f t="shared" ca="1" si="0"/>
-        <v>45011</v>
+        <v>45032</v>
       </c>
       <c r="AS5" s="79">
         <f t="shared" ca="1" si="0"/>
-        <v>45012</v>
+        <v>45033</v>
       </c>
       <c r="AT5" s="80">
         <f t="shared" ca="1" si="0"/>
-        <v>45013</v>
+        <v>45034</v>
       </c>
       <c r="AU5" s="80">
         <f t="shared" ca="1" si="0"/>
-        <v>45014</v>
+        <v>45035</v>
       </c>
       <c r="AV5" s="80">
         <f t="shared" ca="1" si="0"/>
-        <v>45015</v>
+        <v>45036</v>
       </c>
       <c r="AW5" s="80">
         <f t="shared" ca="1" si="0"/>
-        <v>45016</v>
+        <v>45037</v>
       </c>
       <c r="AX5" s="80">
         <f t="shared" ca="1" si="0"/>
-        <v>45017</v>
+        <v>45038</v>
       </c>
       <c r="AY5" s="84">
         <f t="shared" ca="1" si="0"/>
-        <v>45018</v>
+        <v>45039</v>
       </c>
       <c r="AZ5" s="79">
         <f t="shared" ca="1" si="0"/>
-        <v>45019</v>
+        <v>45040</v>
       </c>
       <c r="BA5" s="80">
         <f t="shared" ca="1" si="0"/>
-        <v>45020</v>
+        <v>45041</v>
       </c>
       <c r="BB5" s="80">
         <f t="shared" ref="BB5:BH5" ca="1" si="1">BA5+1</f>
-        <v>45021</v>
+        <v>45042</v>
       </c>
       <c r="BC5" s="80">
         <f t="shared" ca="1" si="1"/>
-        <v>45022</v>
+        <v>45043</v>
       </c>
       <c r="BD5" s="80">
         <f t="shared" ca="1" si="1"/>
-        <v>45023</v>
+        <v>45044</v>
       </c>
       <c r="BE5" s="80">
         <f t="shared" ca="1" si="1"/>
-        <v>45024</v>
+        <v>45045</v>
       </c>
       <c r="BF5" s="84">
         <f t="shared" ca="1" si="1"/>
-        <v>45025</v>
+        <v>45046</v>
       </c>
       <c r="BG5" s="79">
         <f t="shared" ca="1" si="1"/>
-        <v>45026</v>
+        <v>45047</v>
       </c>
       <c r="BH5" s="80">
         <f t="shared" ca="1" si="1"/>
-        <v>45027</v>
+        <v>45048</v>
       </c>
       <c r="BI5" s="80">
         <f t="shared" ref="BI5:BM5" ca="1" si="2">BH5+1</f>
-        <v>45028</v>
+        <v>45049</v>
       </c>
       <c r="BJ5" s="80">
         <f t="shared" ca="1" si="2"/>
-        <v>45029</v>
+        <v>45050</v>
       </c>
       <c r="BK5" s="80">
         <f t="shared" ca="1" si="2"/>
-        <v>45030</v>
+        <v>45051</v>
       </c>
       <c r="BL5" s="80">
         <f t="shared" ca="1" si="2"/>
-        <v>45031</v>
+        <v>45052</v>
       </c>
       <c r="BM5" s="84">
         <f t="shared" ca="1" si="2"/>
-        <v>45032</v>
+        <v>45053</v>
       </c>
     </row>
     <row r="6" spans="1:65" ht="30" customHeight="1" thickBot="1">
@@ -2452,12 +2471,12 @@
     </row>
     <row r="10" spans="1:65" s="13" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A10" s="16"/>
-      <c r="B10" s="101" t="s">
-        <v>66</v>
+      <c r="B10" s="94" t="s">
+        <v>65</v>
       </c>
       <c r="C10" s="87"/>
       <c r="D10" s="90" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E10" s="52">
         <v>1</v>
@@ -2534,8 +2553,8 @@
       <c r="B11" s="89" t="s">
         <v>56</v>
       </c>
-      <c r="C11" s="94" t="s">
-        <v>61</v>
+      <c r="C11" s="93" t="s">
+        <v>60</v>
       </c>
       <c r="D11" s="90" t="s">
         <v>57</v>
@@ -2613,14 +2632,14 @@
     </row>
     <row r="12" spans="1:65" s="13" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A12" s="16"/>
-      <c r="B12" s="101" t="s">
+      <c r="B12" s="94" t="s">
+        <v>63</v>
+      </c>
+      <c r="C12" s="95" t="s">
         <v>64</v>
       </c>
-      <c r="C12" s="102" t="s">
-        <v>65</v>
-      </c>
       <c r="D12" s="90" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E12" s="52">
         <v>1</v>
@@ -3006,20 +3025,28 @@
     </row>
     <row r="17" spans="1:65" s="13" customFormat="1" ht="30" customHeight="1">
       <c r="A17" s="16"/>
-      <c r="B17" s="92" t="s">
-        <v>60</v>
-      </c>
-      <c r="C17" s="30"/>
-      <c r="D17" s="91" t="s">
+      <c r="B17" s="91" t="s">
         <v>59</v>
       </c>
-      <c r="E17" s="57"/>
-      <c r="F17" s="58"/>
-      <c r="G17" s="58"/>
+      <c r="C17" s="102" t="s">
+        <v>66</v>
+      </c>
+      <c r="D17" s="102" t="s">
+        <v>62</v>
+      </c>
+      <c r="E17" s="57">
+        <v>1</v>
+      </c>
+      <c r="F17" s="103">
+        <v>44998</v>
+      </c>
+      <c r="G17" s="103">
+        <v>45005</v>
+      </c>
       <c r="H17" s="51"/>
-      <c r="I17" s="51" t="str">
+      <c r="I17" s="51">
         <f t="shared" si="6"/>
-        <v/>
+        <v>8</v>
       </c>
       <c r="J17" s="82"/>
       <c r="K17" s="82"/>
@@ -3080,18 +3107,26 @@
     </row>
     <row r="18" spans="1:65" s="13" customFormat="1" ht="30" customHeight="1">
       <c r="A18" s="14"/>
-      <c r="B18" s="29" t="s">
-        <v>25</v>
+      <c r="B18" s="104" t="s">
+        <v>67</v>
       </c>
       <c r="C18" s="30"/>
-      <c r="D18" s="30"/>
-      <c r="E18" s="57"/>
-      <c r="F18" s="58"/>
-      <c r="G18" s="58"/>
+      <c r="D18" s="102" t="s">
+        <v>58</v>
+      </c>
+      <c r="E18" s="57">
+        <v>0.25</v>
+      </c>
+      <c r="F18" s="58">
+        <v>44998</v>
+      </c>
+      <c r="G18" s="58">
+        <v>45005</v>
+      </c>
       <c r="H18" s="51"/>
-      <c r="I18" s="51" t="str">
+      <c r="I18" s="51">
         <f t="shared" si="6"/>
-        <v/>
+        <v>8</v>
       </c>
       <c r="J18" s="82"/>
       <c r="K18" s="82"/>
@@ -3152,18 +3187,26 @@
     </row>
     <row r="19" spans="1:65" s="13" customFormat="1" ht="30" customHeight="1">
       <c r="A19" s="14"/>
-      <c r="B19" s="29" t="s">
-        <v>19</v>
+      <c r="B19" s="104" t="s">
+        <v>68</v>
       </c>
       <c r="C19" s="30"/>
-      <c r="D19" s="30"/>
-      <c r="E19" s="57"/>
-      <c r="F19" s="58"/>
-      <c r="G19" s="58"/>
+      <c r="D19" s="102" t="s">
+        <v>57</v>
+      </c>
+      <c r="E19" s="57">
+        <v>0.85</v>
+      </c>
+      <c r="F19" s="58">
+        <v>44998</v>
+      </c>
+      <c r="G19" s="58">
+        <v>45005</v>
+      </c>
       <c r="H19" s="51"/>
-      <c r="I19" s="51" t="str">
+      <c r="I19" s="51">
         <f t="shared" si="6"/>
-        <v/>
+        <v>8</v>
       </c>
       <c r="J19" s="82"/>
       <c r="K19" s="82"/>
@@ -4394,19 +4437,19 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="J4:P4"/>
+    <mergeCell ref="Q4:W4"/>
     <mergeCell ref="BG4:BM4"/>
     <mergeCell ref="X4:AD4"/>
     <mergeCell ref="AE4:AK4"/>
     <mergeCell ref="AL4:AR4"/>
     <mergeCell ref="AS4:AY4"/>
     <mergeCell ref="AZ4:BF4"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="J4:P4"/>
-    <mergeCell ref="Q4:W4"/>
   </mergeCells>
-  <phoneticPr fontId="28" type="noConversion"/>
+  <phoneticPr fontId="29" type="noConversion"/>
   <conditionalFormatting sqref="E7:E35">
     <cfRule type="dataBar" priority="14">
       <dataBar>

--- a/@Documents/Gantt-Chart.xlsx
+++ b/@Documents/Gantt-Chart.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\UPH2023\@Github\Asisten-Mata-kuliah\@Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CCFC321-8C10-42BE-A290-A4647C6AF959}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA94F3D1-9667-444A-8DA8-5098DD353B5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="73">
   <si>
     <t>Create a Project Schedule in this worksheet.
 Enter title of this project in cell B1. 
@@ -290,6 +290,18 @@
   </si>
   <si>
     <t>Managing Documents</t>
+  </si>
+  <si>
+    <t>(ongoing)</t>
+  </si>
+  <si>
+    <t>Dataset creation</t>
+  </si>
+  <si>
+    <t>plus Use Case</t>
+  </si>
+  <si>
+    <t>Use case for most things</t>
   </si>
 </sst>
 </file>
@@ -302,12 +314,19 @@
     <numFmt numFmtId="166" formatCode="ddd\,\ m/d/yyyy"/>
     <numFmt numFmtId="167" formatCode="d"/>
   </numFmts>
-  <fonts count="30">
+  <fonts count="31">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -717,262 +736,262 @@
   </borders>
   <cellStyleXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="3" applyFill="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="3" applyFill="0">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="3" applyFill="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="28" fillId="0" borderId="3" applyFill="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="28" fillId="0" borderId="5">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="3" applyFill="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="29" fillId="0" borderId="3" applyFill="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="29" fillId="0" borderId="5">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyProtection="0">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="9" fontId="28" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="29" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="105">
+  <cellXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="11" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="11" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="5"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="5"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="5" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="5" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="8" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="8" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="9">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="9">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="6">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="6">
       <alignment horizontal="right" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="3" xfId="2" applyFill="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="3" xfId="2" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="5" borderId="3" xfId="2" applyFill="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="6" borderId="3" xfId="1" applyFill="1">
+    <xf numFmtId="0" fontId="29" fillId="5" borderId="3" xfId="2" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="6" borderId="3" xfId="1" applyFill="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="6" borderId="3" xfId="2" applyFill="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="6" borderId="3" xfId="2" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="7" borderId="3" xfId="2" applyFill="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="8" borderId="3" xfId="1" applyFill="1">
+    <xf numFmtId="0" fontId="29" fillId="7" borderId="3" xfId="2" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="8" borderId="3" xfId="1" applyFill="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="8" borderId="3" xfId="2" applyFill="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="8" borderId="3" xfId="2" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="9" borderId="3" xfId="2" applyFill="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="10" borderId="3" xfId="1" applyFill="1">
+    <xf numFmtId="0" fontId="29" fillId="9" borderId="3" xfId="2" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="10" borderId="3" xfId="1" applyFill="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="10" borderId="3" xfId="2" applyFill="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="3" xfId="1">
+    <xf numFmtId="0" fontId="29" fillId="10" borderId="3" xfId="2" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="3" xfId="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="3" xfId="2">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="3" xfId="2">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="11" applyFont="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="11" applyFont="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="9" fillId="3" borderId="3" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="10" fillId="3" borderId="3" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="4" borderId="3" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="28" fillId="4" borderId="3" xfId="3" applyFill="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="5" borderId="3" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="10" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="4" borderId="3" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="29" fillId="4" borderId="3" xfId="3" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="5" borderId="3" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="6" borderId="3" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="28" fillId="6" borderId="3" xfId="3" applyFill="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="7" borderId="3" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="10" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="6" borderId="3" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="29" fillId="6" borderId="3" xfId="3" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="7" borderId="3" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="8" borderId="3" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="28" fillId="8" borderId="3" xfId="3" applyFill="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="9" borderId="3" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="10" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="8" borderId="3" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="29" fillId="8" borderId="3" xfId="3" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="9" borderId="3" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="10" borderId="3" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="28" fillId="10" borderId="3" xfId="3" applyFill="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="3" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="28" fillId="0" borderId="3" xfId="3">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="11" borderId="3" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="23" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="10" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="10" borderId="3" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="29" fillId="10" borderId="3" xfId="3" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="3" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="29" fillId="0" borderId="3" xfId="3">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="11" borderId="3" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="24" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="10" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="11" applyFont="1" applyProtection="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="11" applyFont="1" applyProtection="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="167" fontId="26" fillId="12" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="26" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="27" fillId="12" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="27" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
@@ -981,41 +1000,59 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="26" fillId="12" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="27" fillId="12" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="2" applyFont="1" applyFill="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="2" applyFont="1" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="2" applyFont="1" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="7" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="2" applyFont="1" applyFill="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="7" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="2" applyFont="1" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="6" borderId="3" xfId="3" applyFont="1" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="6">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="4" xfId="6" applyBorder="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="29" fillId="0" borderId="5" xfId="4">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="12" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
@@ -1026,23 +1063,17 @@
     <xf numFmtId="164" fontId="0" fillId="12" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="6">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="4" xfId="6" applyBorder="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="28" fillId="0" borderId="5" xfId="4">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="2" applyFont="1" applyFill="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="6" borderId="3" xfId="3" applyFont="1" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="1" applyFont="1" applyFill="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="2" applyFont="1" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="12">
@@ -1605,8 +1636,8 @@
   <dimension ref="A1:BM38"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AC20" sqref="AC20"/>
+      <pane ySplit="6" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P25" sqref="P25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="30" customHeight="1"/>
@@ -1661,7 +1692,7 @@
       <c r="E3" s="100"/>
       <c r="F3" s="101">
         <f ca="1">TODAY()</f>
-        <v>44998</v>
+        <v>45006</v>
       </c>
       <c r="G3" s="101"/>
     </row>
@@ -1677,86 +1708,86 @@
       <c r="F4" s="47">
         <v>1</v>
       </c>
-      <c r="J4" s="96">
+      <c r="J4" s="102">
         <f ca="1">J5</f>
-        <v>44998</v>
-      </c>
-      <c r="K4" s="97"/>
-      <c r="L4" s="97"/>
-      <c r="M4" s="97"/>
-      <c r="N4" s="97"/>
-      <c r="O4" s="97"/>
-      <c r="P4" s="98"/>
-      <c r="Q4" s="96">
+        <v>45005</v>
+      </c>
+      <c r="K4" s="103"/>
+      <c r="L4" s="103"/>
+      <c r="M4" s="103"/>
+      <c r="N4" s="103"/>
+      <c r="O4" s="103"/>
+      <c r="P4" s="104"/>
+      <c r="Q4" s="102">
         <f ca="1">Q5</f>
-        <v>45005</v>
-      </c>
-      <c r="R4" s="97"/>
-      <c r="S4" s="97"/>
-      <c r="T4" s="97"/>
-      <c r="U4" s="97"/>
-      <c r="V4" s="97"/>
-      <c r="W4" s="98"/>
-      <c r="X4" s="96">
+        <v>45012</v>
+      </c>
+      <c r="R4" s="103"/>
+      <c r="S4" s="103"/>
+      <c r="T4" s="103"/>
+      <c r="U4" s="103"/>
+      <c r="V4" s="103"/>
+      <c r="W4" s="104"/>
+      <c r="X4" s="102">
         <f ca="1">X5</f>
-        <v>45012</v>
-      </c>
-      <c r="Y4" s="97"/>
-      <c r="Z4" s="97"/>
-      <c r="AA4" s="97"/>
-      <c r="AB4" s="97"/>
-      <c r="AC4" s="97"/>
-      <c r="AD4" s="98"/>
-      <c r="AE4" s="96">
+        <v>45019</v>
+      </c>
+      <c r="Y4" s="103"/>
+      <c r="Z4" s="103"/>
+      <c r="AA4" s="103"/>
+      <c r="AB4" s="103"/>
+      <c r="AC4" s="103"/>
+      <c r="AD4" s="104"/>
+      <c r="AE4" s="102">
         <f ca="1">AE5</f>
-        <v>45019</v>
-      </c>
-      <c r="AF4" s="97"/>
-      <c r="AG4" s="97"/>
-      <c r="AH4" s="97"/>
-      <c r="AI4" s="97"/>
-      <c r="AJ4" s="97"/>
-      <c r="AK4" s="98"/>
-      <c r="AL4" s="96">
+        <v>45026</v>
+      </c>
+      <c r="AF4" s="103"/>
+      <c r="AG4" s="103"/>
+      <c r="AH4" s="103"/>
+      <c r="AI4" s="103"/>
+      <c r="AJ4" s="103"/>
+      <c r="AK4" s="104"/>
+      <c r="AL4" s="102">
         <f ca="1">AL5</f>
-        <v>45026</v>
-      </c>
-      <c r="AM4" s="97"/>
-      <c r="AN4" s="97"/>
-      <c r="AO4" s="97"/>
-      <c r="AP4" s="97"/>
-      <c r="AQ4" s="97"/>
-      <c r="AR4" s="98"/>
-      <c r="AS4" s="96">
+        <v>45033</v>
+      </c>
+      <c r="AM4" s="103"/>
+      <c r="AN4" s="103"/>
+      <c r="AO4" s="103"/>
+      <c r="AP4" s="103"/>
+      <c r="AQ4" s="103"/>
+      <c r="AR4" s="104"/>
+      <c r="AS4" s="102">
         <f ca="1">AS5</f>
-        <v>45033</v>
-      </c>
-      <c r="AT4" s="97"/>
-      <c r="AU4" s="97"/>
-      <c r="AV4" s="97"/>
-      <c r="AW4" s="97"/>
-      <c r="AX4" s="97"/>
-      <c r="AY4" s="98"/>
-      <c r="AZ4" s="96">
+        <v>45040</v>
+      </c>
+      <c r="AT4" s="103"/>
+      <c r="AU4" s="103"/>
+      <c r="AV4" s="103"/>
+      <c r="AW4" s="103"/>
+      <c r="AX4" s="103"/>
+      <c r="AY4" s="104"/>
+      <c r="AZ4" s="102">
         <f ca="1">AZ5</f>
-        <v>45040</v>
-      </c>
-      <c r="BA4" s="97"/>
-      <c r="BB4" s="97"/>
-      <c r="BC4" s="97"/>
-      <c r="BD4" s="97"/>
-      <c r="BE4" s="97"/>
-      <c r="BF4" s="98"/>
-      <c r="BG4" s="96">
+        <v>45047</v>
+      </c>
+      <c r="BA4" s="103"/>
+      <c r="BB4" s="103"/>
+      <c r="BC4" s="103"/>
+      <c r="BD4" s="103"/>
+      <c r="BE4" s="103"/>
+      <c r="BF4" s="104"/>
+      <c r="BG4" s="102">
         <f ca="1">BG5</f>
-        <v>45047</v>
-      </c>
-      <c r="BH4" s="97"/>
-      <c r="BI4" s="97"/>
-      <c r="BJ4" s="97"/>
-      <c r="BK4" s="97"/>
-      <c r="BL4" s="97"/>
-      <c r="BM4" s="98"/>
+        <v>45054</v>
+      </c>
+      <c r="BH4" s="103"/>
+      <c r="BI4" s="103"/>
+      <c r="BJ4" s="103"/>
+      <c r="BK4" s="103"/>
+      <c r="BL4" s="103"/>
+      <c r="BM4" s="104"/>
     </row>
     <row r="5" spans="1:65" ht="15" customHeight="1">
       <c r="A5" s="16" t="s">
@@ -1771,227 +1802,227 @@
       <c r="H5" s="21"/>
       <c r="J5" s="79">
         <f ca="1">Project_Start-WEEKDAY(Project_Start,1)+2+7*(Display_Week-1)</f>
-        <v>44998</v>
+        <v>45005</v>
       </c>
       <c r="K5" s="80">
         <f ca="1">J5+1</f>
-        <v>44999</v>
+        <v>45006</v>
       </c>
       <c r="L5" s="80">
         <f t="shared" ref="L5:BA5" ca="1" si="0">K5+1</f>
-        <v>45000</v>
+        <v>45007</v>
       </c>
       <c r="M5" s="80">
         <f t="shared" ca="1" si="0"/>
-        <v>45001</v>
+        <v>45008</v>
       </c>
       <c r="N5" s="80">
         <f t="shared" ca="1" si="0"/>
-        <v>45002</v>
+        <v>45009</v>
       </c>
       <c r="O5" s="80">
         <f t="shared" ca="1" si="0"/>
-        <v>45003</v>
+        <v>45010</v>
       </c>
       <c r="P5" s="84">
         <f t="shared" ca="1" si="0"/>
-        <v>45004</v>
+        <v>45011</v>
       </c>
       <c r="Q5" s="79">
         <f t="shared" ca="1" si="0"/>
-        <v>45005</v>
+        <v>45012</v>
       </c>
       <c r="R5" s="80">
         <f t="shared" ca="1" si="0"/>
-        <v>45006</v>
+        <v>45013</v>
       </c>
       <c r="S5" s="80">
         <f t="shared" ca="1" si="0"/>
-        <v>45007</v>
+        <v>45014</v>
       </c>
       <c r="T5" s="80">
         <f t="shared" ca="1" si="0"/>
-        <v>45008</v>
+        <v>45015</v>
       </c>
       <c r="U5" s="80">
         <f t="shared" ca="1" si="0"/>
-        <v>45009</v>
+        <v>45016</v>
       </c>
       <c r="V5" s="80">
         <f t="shared" ca="1" si="0"/>
-        <v>45010</v>
+        <v>45017</v>
       </c>
       <c r="W5" s="84">
         <f t="shared" ca="1" si="0"/>
-        <v>45011</v>
+        <v>45018</v>
       </c>
       <c r="X5" s="79">
         <f t="shared" ca="1" si="0"/>
-        <v>45012</v>
+        <v>45019</v>
       </c>
       <c r="Y5" s="80">
         <f t="shared" ca="1" si="0"/>
-        <v>45013</v>
+        <v>45020</v>
       </c>
       <c r="Z5" s="80">
         <f t="shared" ca="1" si="0"/>
-        <v>45014</v>
+        <v>45021</v>
       </c>
       <c r="AA5" s="80">
         <f t="shared" ca="1" si="0"/>
-        <v>45015</v>
+        <v>45022</v>
       </c>
       <c r="AB5" s="80">
         <f t="shared" ca="1" si="0"/>
-        <v>45016</v>
+        <v>45023</v>
       </c>
       <c r="AC5" s="80">
         <f t="shared" ca="1" si="0"/>
-        <v>45017</v>
+        <v>45024</v>
       </c>
       <c r="AD5" s="84">
         <f t="shared" ca="1" si="0"/>
-        <v>45018</v>
+        <v>45025</v>
       </c>
       <c r="AE5" s="79">
         <f t="shared" ca="1" si="0"/>
-        <v>45019</v>
+        <v>45026</v>
       </c>
       <c r="AF5" s="80">
         <f t="shared" ca="1" si="0"/>
-        <v>45020</v>
+        <v>45027</v>
       </c>
       <c r="AG5" s="80">
         <f t="shared" ca="1" si="0"/>
-        <v>45021</v>
+        <v>45028</v>
       </c>
       <c r="AH5" s="80">
         <f t="shared" ca="1" si="0"/>
-        <v>45022</v>
+        <v>45029</v>
       </c>
       <c r="AI5" s="80">
         <f t="shared" ca="1" si="0"/>
-        <v>45023</v>
+        <v>45030</v>
       </c>
       <c r="AJ5" s="80">
         <f t="shared" ca="1" si="0"/>
-        <v>45024</v>
+        <v>45031</v>
       </c>
       <c r="AK5" s="84">
         <f t="shared" ca="1" si="0"/>
-        <v>45025</v>
+        <v>45032</v>
       </c>
       <c r="AL5" s="79">
         <f t="shared" ca="1" si="0"/>
-        <v>45026</v>
+        <v>45033</v>
       </c>
       <c r="AM5" s="80">
         <f t="shared" ca="1" si="0"/>
-        <v>45027</v>
+        <v>45034</v>
       </c>
       <c r="AN5" s="80">
         <f t="shared" ca="1" si="0"/>
-        <v>45028</v>
+        <v>45035</v>
       </c>
       <c r="AO5" s="80">
         <f t="shared" ca="1" si="0"/>
-        <v>45029</v>
+        <v>45036</v>
       </c>
       <c r="AP5" s="80">
         <f t="shared" ca="1" si="0"/>
-        <v>45030</v>
+        <v>45037</v>
       </c>
       <c r="AQ5" s="80">
         <f t="shared" ca="1" si="0"/>
-        <v>45031</v>
+        <v>45038</v>
       </c>
       <c r="AR5" s="84">
         <f t="shared" ca="1" si="0"/>
-        <v>45032</v>
+        <v>45039</v>
       </c>
       <c r="AS5" s="79">
         <f t="shared" ca="1" si="0"/>
-        <v>45033</v>
+        <v>45040</v>
       </c>
       <c r="AT5" s="80">
         <f t="shared" ca="1" si="0"/>
-        <v>45034</v>
+        <v>45041</v>
       </c>
       <c r="AU5" s="80">
         <f t="shared" ca="1" si="0"/>
-        <v>45035</v>
+        <v>45042</v>
       </c>
       <c r="AV5" s="80">
         <f t="shared" ca="1" si="0"/>
-        <v>45036</v>
+        <v>45043</v>
       </c>
       <c r="AW5" s="80">
         <f t="shared" ca="1" si="0"/>
-        <v>45037</v>
+        <v>45044</v>
       </c>
       <c r="AX5" s="80">
         <f t="shared" ca="1" si="0"/>
-        <v>45038</v>
+        <v>45045</v>
       </c>
       <c r="AY5" s="84">
         <f t="shared" ca="1" si="0"/>
-        <v>45039</v>
+        <v>45046</v>
       </c>
       <c r="AZ5" s="79">
         <f t="shared" ca="1" si="0"/>
-        <v>45040</v>
+        <v>45047</v>
       </c>
       <c r="BA5" s="80">
         <f t="shared" ca="1" si="0"/>
-        <v>45041</v>
+        <v>45048</v>
       </c>
       <c r="BB5" s="80">
         <f t="shared" ref="BB5:BH5" ca="1" si="1">BA5+1</f>
-        <v>45042</v>
+        <v>45049</v>
       </c>
       <c r="BC5" s="80">
         <f t="shared" ca="1" si="1"/>
-        <v>45043</v>
+        <v>45050</v>
       </c>
       <c r="BD5" s="80">
         <f t="shared" ca="1" si="1"/>
-        <v>45044</v>
+        <v>45051</v>
       </c>
       <c r="BE5" s="80">
         <f t="shared" ca="1" si="1"/>
-        <v>45045</v>
+        <v>45052</v>
       </c>
       <c r="BF5" s="84">
         <f t="shared" ca="1" si="1"/>
-        <v>45046</v>
+        <v>45053</v>
       </c>
       <c r="BG5" s="79">
         <f t="shared" ca="1" si="1"/>
-        <v>45047</v>
+        <v>45054</v>
       </c>
       <c r="BH5" s="80">
         <f t="shared" ca="1" si="1"/>
-        <v>45048</v>
+        <v>45055</v>
       </c>
       <c r="BI5" s="80">
         <f t="shared" ref="BI5:BM5" ca="1" si="2">BH5+1</f>
-        <v>45049</v>
+        <v>45056</v>
       </c>
       <c r="BJ5" s="80">
         <f t="shared" ca="1" si="2"/>
-        <v>45050</v>
+        <v>45057</v>
       </c>
       <c r="BK5" s="80">
         <f t="shared" ca="1" si="2"/>
-        <v>45051</v>
+        <v>45058</v>
       </c>
       <c r="BL5" s="80">
         <f t="shared" ca="1" si="2"/>
-        <v>45052</v>
+        <v>45059</v>
       </c>
       <c r="BM5" s="84">
         <f t="shared" ca="1" si="2"/>
-        <v>45053</v>
+        <v>45060</v>
       </c>
     </row>
     <row r="6" spans="1:65" ht="30" customHeight="1" thickBot="1">
@@ -3028,19 +3059,19 @@
       <c r="B17" s="91" t="s">
         <v>59</v>
       </c>
-      <c r="C17" s="102" t="s">
+      <c r="C17" s="96" t="s">
         <v>66</v>
       </c>
-      <c r="D17" s="102" t="s">
+      <c r="D17" s="96" t="s">
         <v>62</v>
       </c>
       <c r="E17" s="57">
         <v>1</v>
       </c>
-      <c r="F17" s="103">
+      <c r="F17" s="97">
         <v>44998</v>
       </c>
-      <c r="G17" s="103">
+      <c r="G17" s="97">
         <v>45005</v>
       </c>
       <c r="H17" s="51"/>
@@ -3107,11 +3138,11 @@
     </row>
     <row r="18" spans="1:65" s="13" customFormat="1" ht="30" customHeight="1">
       <c r="A18" s="14"/>
-      <c r="B18" s="104" t="s">
+      <c r="B18" s="98" t="s">
         <v>67</v>
       </c>
       <c r="C18" s="30"/>
-      <c r="D18" s="102" t="s">
+      <c r="D18" s="96" t="s">
         <v>58</v>
       </c>
       <c r="E18" s="57">
@@ -3187,15 +3218,17 @@
     </row>
     <row r="19" spans="1:65" s="13" customFormat="1" ht="30" customHeight="1">
       <c r="A19" s="14"/>
-      <c r="B19" s="104" t="s">
+      <c r="B19" s="106" t="s">
         <v>68</v>
       </c>
-      <c r="C19" s="30"/>
-      <c r="D19" s="102" t="s">
+      <c r="C19" s="105" t="s">
+        <v>69</v>
+      </c>
+      <c r="D19" s="105" t="s">
         <v>57</v>
       </c>
       <c r="E19" s="57">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="F19" s="58">
         <v>44998</v>
@@ -3485,18 +3518,28 @@
     </row>
     <row r="23" spans="1:65" s="13" customFormat="1" ht="30" customHeight="1">
       <c r="A23" s="14"/>
-      <c r="B23" s="33" t="s">
-        <v>24</v>
-      </c>
-      <c r="C23" s="34"/>
-      <c r="D23" s="34"/>
-      <c r="E23" s="62"/>
-      <c r="F23" s="63"/>
-      <c r="G23" s="63"/>
+      <c r="B23" s="107" t="s">
+        <v>68</v>
+      </c>
+      <c r="C23" s="108" t="s">
+        <v>69</v>
+      </c>
+      <c r="D23" s="108" t="s">
+        <v>57</v>
+      </c>
+      <c r="E23" s="62">
+        <v>1</v>
+      </c>
+      <c r="F23" s="63">
+        <v>45006</v>
+      </c>
+      <c r="G23" s="63">
+        <v>45006</v>
+      </c>
       <c r="H23" s="51"/>
-      <c r="I23" s="51" t="str">
+      <c r="I23" s="51">
         <f t="shared" si="6"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="J23" s="82"/>
       <c r="K23" s="82"/>
@@ -3557,18 +3600,28 @@
     </row>
     <row r="24" spans="1:65" s="13" customFormat="1" ht="30" customHeight="1">
       <c r="A24" s="14"/>
-      <c r="B24" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" s="34"/>
-      <c r="D24" s="34"/>
-      <c r="E24" s="62"/>
-      <c r="F24" s="63"/>
-      <c r="G24" s="63"/>
+      <c r="B24" s="107" t="s">
+        <v>70</v>
+      </c>
+      <c r="C24" s="108" t="s">
+        <v>71</v>
+      </c>
+      <c r="D24" s="108" t="s">
+        <v>58</v>
+      </c>
+      <c r="E24" s="62">
+        <v>1</v>
+      </c>
+      <c r="F24" s="63">
+        <v>45005</v>
+      </c>
+      <c r="G24" s="63">
+        <v>45006</v>
+      </c>
       <c r="H24" s="51"/>
-      <c r="I24" s="51" t="str">
+      <c r="I24" s="51">
         <f t="shared" si="6"/>
-        <v/>
+        <v>2</v>
       </c>
       <c r="J24" s="82"/>
       <c r="K24" s="82"/>
@@ -3629,18 +3682,26 @@
     </row>
     <row r="25" spans="1:65" s="13" customFormat="1" ht="30" customHeight="1">
       <c r="A25" s="14"/>
-      <c r="B25" s="33" t="s">
-        <v>19</v>
+      <c r="B25" s="107" t="s">
+        <v>72</v>
       </c>
       <c r="C25" s="34"/>
-      <c r="D25" s="34"/>
-      <c r="E25" s="62"/>
-      <c r="F25" s="63"/>
-      <c r="G25" s="63"/>
+      <c r="D25" s="108" t="s">
+        <v>57</v>
+      </c>
+      <c r="E25" s="62">
+        <v>1</v>
+      </c>
+      <c r="F25" s="63">
+        <v>45002</v>
+      </c>
+      <c r="G25" s="63">
+        <v>45006</v>
+      </c>
       <c r="H25" s="51"/>
-      <c r="I25" s="51" t="str">
+      <c r="I25" s="51">
         <f t="shared" si="6"/>
-        <v/>
+        <v>5</v>
       </c>
       <c r="J25" s="82"/>
       <c r="K25" s="82"/>
@@ -4437,19 +4498,19 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="J4:P4"/>
-    <mergeCell ref="Q4:W4"/>
     <mergeCell ref="BG4:BM4"/>
     <mergeCell ref="X4:AD4"/>
     <mergeCell ref="AE4:AK4"/>
     <mergeCell ref="AL4:AR4"/>
     <mergeCell ref="AS4:AY4"/>
     <mergeCell ref="AZ4:BF4"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="J4:P4"/>
+    <mergeCell ref="Q4:W4"/>
   </mergeCells>
-  <phoneticPr fontId="29" type="noConversion"/>
+  <phoneticPr fontId="30" type="noConversion"/>
   <conditionalFormatting sqref="E7:E35">
     <cfRule type="dataBar" priority="14">
       <dataBar>
